--- a/uploads/M18.xlsx
+++ b/uploads/M18.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Natijalar" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="Natijalar" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -45,25 +43,29 @@
     <t>M18</t>
   </si>
   <si>
-    <t xml:space="preserve">Azizbek Bariyev</t>
+    <t>Azizbek Bariyev</t>
   </si>
   <si>
     <t>Samarqand</t>
   </si>
   <si>
-    <t xml:space="preserve">0:1, 1:0, 2:0, 3:1, 4:1</t>
+    <t>0:1, 1:0, 2:0, 3:1, 4:1</t>
+  </si>
+  <si>
+    <t>0:0, 1:0, 2:0, 3:1, 4:1, 51:0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
       <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,18 +78,18 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,19 +646,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10"/>
-    <col customWidth="1" min="2" max="4" width="20"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -684,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -698,11 +701,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="4294967295" verticalDpi="4294967295" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" usePrinterDefaults="1" copies="1"/>
 </worksheet>
 </file>
--- a/uploads/M18.xlsx
+++ b/uploads/M18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>0:0, 1:0, 2:0, 3:1, 4:1, 51:0</t>
+  </si>
+  <si>
+    <t>0:1, 1:1</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +718,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" usePrinterDefaults="1" copies="1"/>

--- a/uploads/M18.xlsx
+++ b/uploads/M18.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Natijalar" state="visible" r:id="rId4"/>
   </sheets>
@@ -14,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -28,18 +25,6 @@
     <t>Savol-Javoblar</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Azizbek</t>
-  </si>
-  <si>
-    <t>Toshkent</t>
-  </si>
-  <si>
-    <t>A,B,C</t>
-  </si>
-  <si>
     <t>M18</t>
   </si>
   <si>
@@ -49,13 +34,7 @@
     <t>Samarqand</t>
   </si>
   <si>
-    <t>0:1, 1:0, 2:0, 3:1, 4:1</t>
-  </si>
-  <si>
-    <t>0:0, 1:0, 2:0, 3:1, 4:1, 51:0</t>
-  </si>
-  <si>
-    <t>0:1, 1:1</t>
+    <t>6:0, 7:0, 8:0</t>
   </si>
 </sst>
 </file>
@@ -110,7 +89,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -156,13 +135,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -185,18 +164,19 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -219,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -253,20 +234,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -388,226 +365,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr bwMode="auto"/>
+      <a:spPr/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -626,7 +386,7 @@
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr bwMode="auto"/>
+      <a:spPr/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -645,18 +405,14 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <dimension ref="A1:D2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="4" width="20" customWidth="1"/>
@@ -690,64 +446,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" usePrinterDefaults="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>